--- a/tactics.xlsx
+++ b/tactics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0529C09D-3155-43BF-AE34-B91C0D82363D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECB5898-7257-4E3C-94DF-68E417453C6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6ACF284B-7517-4806-93BB-B0394A55D5D8}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/tactics.xlsx
+++ b/tactics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECB5898-7257-4E3C-94DF-68E417453C6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C81CCA28-A2A8-49E8-8134-0F3E524CC72D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6ACF284B-7517-4806-93BB-B0394A55D5D8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Search your deck and pick one footballer. Then, put 1 footballer from your hand to the deck. Shuffle your deck.</t>
   </si>
@@ -46,6 +46,36 @@
   </si>
   <si>
     <t>Tactics</t>
+  </si>
+  <si>
+    <t>You may add 1 die for each test you do this turn</t>
+  </si>
+  <si>
+    <t>Tactic 2</t>
+  </si>
+  <si>
+    <t>Tactic 3</t>
+  </si>
+  <si>
+    <t>Remove up to 2 cards from your discard pile from the game OR draw a card</t>
+  </si>
+  <si>
+    <t>Tactic 4</t>
+  </si>
+  <si>
+    <t>You may skip a test of an event card that has two or more tests.</t>
+  </si>
+  <si>
+    <t>Tactic 5</t>
+  </si>
+  <si>
+    <t>Gain 1 gold per test passed on this turn</t>
+  </si>
+  <si>
+    <t>Tactic 6</t>
+  </si>
+  <si>
+    <t>Remove 1 table card from the game</t>
   </si>
 </sst>
 </file>
@@ -61,6 +91,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -111,7 +142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -407,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CE5D50-0191-443B-B9F3-1ED61A481F9D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -437,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -448,10 +479,65 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tactics.xlsx
+++ b/tactics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C81CCA28-A2A8-49E8-8134-0F3E524CC72D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561BD115-55EC-4564-9973-9AA2A856EC3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6ACF284B-7517-4806-93BB-B0394A55D5D8}"/>
   </bookViews>
@@ -72,10 +72,10 @@
     <t>Gain 1 gold per test passed on this turn</t>
   </si>
   <si>
-    <t>Tactic 6</t>
-  </si>
-  <si>
-    <t>Remove 1 table card from the game</t>
+    <t>Tactic 0</t>
+  </si>
+  <si>
+    <t>Put 1 card from the pool to the table discard pile</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -534,7 +534,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>

--- a/tactics.xlsx
+++ b/tactics.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561BD115-55EC-4564-9973-9AA2A856EC3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CD59439-67B0-462C-BB98-8F95AF94F431}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6ACF284B-7517-4806-93BB-B0394A55D5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/tactics.xlsx
+++ b/tactics.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CD59439-67B0-462C-BB98-8F95AF94F431}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{565EA7A7-7B24-452A-8292-0742C0837D54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6ACF284B-7517-4806-93BB-B0394A55D5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$C$8</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Search your deck and pick one footballer. Then, put 1 footballer from your hand to the deck. Shuffle your deck.</t>
   </si>
@@ -58,25 +60,49 @@
     <t>Tactic 3</t>
   </si>
   <si>
-    <t>Remove up to 2 cards from your discard pile from the game OR draw a card</t>
-  </si>
-  <si>
     <t>Tactic 4</t>
   </si>
   <si>
-    <t>You may skip a test of an event card that has two or more tests.</t>
-  </si>
-  <si>
     <t>Tactic 5</t>
   </si>
   <si>
-    <t>Gain 1 gold per test passed on this turn</t>
-  </si>
-  <si>
     <t>Tactic 0</t>
   </si>
   <si>
     <t>Put 1 card from the pool to the table discard pile</t>
+  </si>
+  <si>
+    <t>Gain 1 gold per test passed on this turn (max: 4)</t>
+  </si>
+  <si>
+    <t>Remove 1 card from your discard pile from the game OR draw a card</t>
+  </si>
+  <si>
+    <t>You may skip a difficulty 3 or lower test of an event card that has two or more tests.</t>
+  </si>
+  <si>
+    <t>Coach anger</t>
+  </si>
+  <si>
+    <t>If you fail a test, play this card. You may try to pass the test again</t>
+  </si>
+  <si>
+    <t>4-3-3</t>
+  </si>
+  <si>
+    <t>5-3-2</t>
+  </si>
+  <si>
+    <t>3-5-2</t>
+  </si>
+  <si>
+    <t>You may roll +1 die to you shooting tests this turn</t>
+  </si>
+  <si>
+    <t>You may roll +1 die to your defence tests this turn</t>
+  </si>
+  <si>
+    <t>You may roll +1 die to you assisting tests this turn</t>
   </si>
 </sst>
 </file>
@@ -143,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CE5D50-0191-443B-B9F3-1ED61A481F9D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -466,13 +492,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -488,60 +514,109 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C8" xr:uid="{A9A4C5E0-AF2D-4FA6-8060-DADF1034ADA8}">
+    <sortState ref="A2:C12">
+      <sortCondition ref="B1:B8"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>